--- a/Monitoria robotica/Lista cotizaciones.xlsx
+++ b/Monitoria robotica/Lista cotizaciones.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\Monitoria robotica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08FF6F1-49B0-45E9-AF5F-635BB6342E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C1978-7C6C-4F25-A875-00255C996EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C7C4D32-7BBD-4217-9C39-26DDF994EC54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C7C4D32-7BBD-4217-9C39-26DDF994EC54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
-  <si>
-    <t>Nombre</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>Referencia</t>
   </si>
@@ -54,9 +50,6 @@
     <t>Descripción/motivo</t>
   </si>
   <si>
-    <t>Página web</t>
-  </si>
-  <si>
     <t>Adaptador U2D2</t>
   </si>
   <si>
@@ -84,9 +77,6 @@
     <t>Genérica</t>
   </si>
   <si>
-    <t>Tablas de reemplazo para el espacio de trabajo de los IRB140</t>
-  </si>
-  <si>
     <t>Candados</t>
   </si>
   <si>
@@ -105,9 +95,6 @@
     <t>Fuentes 12V 2A</t>
   </si>
   <si>
-    <t>https://www.tuvoltio.com/categorias/124-iluminacion-publicitaria/11125-adaptador-12v-2a-econo?gclid=CjwKCAiA9NGfBhBvEiwAq5vSy83in23mwyHNUftsCMVqS1npgL3aV4L6s9M5BKo0iyO6mm4VsSt4nxoCs2AQAvD_BwE</t>
-  </si>
-  <si>
     <t>Sensor Kinect</t>
   </si>
   <si>
@@ -135,9 +122,6 @@
     <t>https://www.linio.com.co/p/perfil-extrusion-aluminio-2020-v-slot-estructural-1-metro-qdghi2</t>
   </si>
   <si>
-    <t>bulk ax-12</t>
-  </si>
-  <si>
     <t>Baterias IRB140</t>
   </si>
   <si>
@@ -150,9 +134,6 @@
     <t>DSQC 612 Ethernet Board</t>
   </si>
   <si>
-    <t>tornillos y tuercas m2</t>
-  </si>
-  <si>
     <t>carretes PLA</t>
   </si>
   <si>
@@ -162,9 +143,6 @@
     <t>Fuente para pincher phantom X</t>
   </si>
   <si>
-    <t>https://articulo.mercadolibre.com.co/MCO-631364527-adaptador-o-fuente-de-poder-12v-5-amperios-_JM?matt_tool=42035816&amp;matt_word=&amp;matt_source=google&amp;matt_campaign_id=14634237770&amp;matt_ad_group_id=145708770672&amp;matt_match_type=&amp;matt_network=g&amp;matt_device=c&amp;matt_creative=644763067417&amp;matt_keyword=&amp;matt_ad_position=&amp;matt_ad_type=pla&amp;matt_merchant_id=455120272&amp;matt_product_id=MCO631364527&amp;matt_product_partition_id=1939579762776&amp;matt_target_id=pla-1939579762776&amp;gclid=Cj0KCQiA6LyfBhC3ARIsAG4gkF_-mcyWgb7xOyktB2IVJ1UozOrWaPYJA7J1pRkB7zLVe6Jyx3lVeRYaAm9mEALw_wcB</t>
-  </si>
-  <si>
     <t>Tornillo hexagonal M2X6</t>
   </si>
   <si>
@@ -193,13 +171,79 @@
   </si>
   <si>
     <t>Repuestos Pincher</t>
+  </si>
+  <si>
+    <t>Cotizar en carpintería</t>
+  </si>
+  <si>
+    <t>Cables de conexión para los servos</t>
+  </si>
+  <si>
+    <t>https://www.didacticaselectronicas.com/index.php/robotica/otros-elementos/robot-cable-3p-200mm-cables-para-servomotores-servomotor-servo-motor-robotis-dynamixel-detail</t>
+  </si>
+  <si>
+    <t>Servomotor ax-12</t>
+  </si>
+  <si>
+    <t>MEC_0497</t>
+  </si>
+  <si>
+    <t>https://tienda.tdrobotica.co/dynamixel-serie-ax-y-mx/202-servomotor-dynamixel-ax-12a153-kg-cm59-rpm.html</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.co/MCO-631364527-adaptador-o-fuente-de-poder-12v-5-amperios-_JM?matt_tool=42035816&amp;matt_word=&amp;matt_source=google&amp;matt_campaign_id=14634237770&amp;matt_ad_group_id=145708770672&amp;matt_match_type=&amp;matt_network=g&amp;matt_device=c&amp;matt_creative=644763067417&amp;matt_keyword=&amp;matt_ad_position=&amp;matt_ad_type=pla&amp;matt_merchant_id=455120272&amp;matt_product_id=MCO631364527&amp;matt_product_partition_id=1939579762776&amp;matt_target_id=pla-1939579762776&amp;gclid=Cj0KCQjwn9CgBhDjARIsAD15h0B-BFxyKT52tGxMjk6U6QrpeCgDnqSIDiIFX3_aGhCnwEjWeec1NB8aAuBZEALw_wcB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://articulo.mercadolibre.com.co/MCO-571746168-interfaz-usb-u2d2-para-dynamixel-robotica-electronica-_JM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.miplastihogar.com/products/caja-plastica-organizadora-de-10-litros-con-tapa </t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.co/MCO-558440952-kinect-xbox-360-adaptador-de-corriente-sensor-usb-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=e066b564-a752-4547-97a8-5bf0e113c958</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.co/MCO-493985436-kinect-sensor-xbox-360-obsequio-diseno-en-scrim-envio-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=e066b564-a752-4547-97a8-5bf0e113c958</t>
+  </si>
+  <si>
+    <t>Cotiazación</t>
+  </si>
+  <si>
+    <t>Preguntar en las papelerías de la 45</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.co/MCO-577244409-adaptador-voltaje-12v-2a-alta-calidad-cargador-regulador-dc-_JM#position=2&amp;search_layout=stack&amp;type=item&amp;tracking_id=58127cb8-c74d-4bcb-979e-c913a0bf4186</t>
+  </si>
+  <si>
+    <t>Fuente para PincherX 100</t>
+  </si>
+  <si>
+    <t>Nombre2</t>
+  </si>
+  <si>
+    <t>Conjunto</t>
+  </si>
+  <si>
+    <t>Brazo robótico académico</t>
+  </si>
+  <si>
+    <t>Visión sensórica</t>
+  </si>
+  <si>
+    <t>Manufactura aditiva</t>
+  </si>
+  <si>
+    <t>LabSIR</t>
+  </si>
+  <si>
+    <t>Tablas de reemplazo para LABSIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +261,27 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -265,20 +330,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -444,65 +546,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1226291</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>48727</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC2082D-B513-6706-F54C-D045BBAAC446}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2484120" y="6294120"/>
-          <a:ext cx="9859751" cy="7897327"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23327F21-14E8-4EA3-B9CE-3EC335DCB3E0}" name="Table1" displayName="Table1" ref="A2:F27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F27" xr:uid="{23327F21-14E8-4EA3-B9CE-3EC335DCB3E0}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F8D19033-DFFB-42AA-8E14-B81243276596}" name="Nombre" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23327F21-14E8-4EA3-B9CE-3EC335DCB3E0}" name="Table1" displayName="Table1" ref="B2:H26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B2:H26" xr:uid="{23327F21-14E8-4EA3-B9CE-3EC335DCB3E0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H26">
+    <sortCondition ref="B2:B26"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F8D19033-DFFB-42AA-8E14-B81243276596}" name="Conjunto" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{2E5522E3-4F2A-4CA7-8C82-5EEBB3648770}" name="Nombre2" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{A74A3D84-D66B-4D43-94C1-121A23683078}" name="Referencia" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{86CC09F2-5D30-4DE2-A8D9-6A19117D8452}" name="Cantidad" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{DA1545B9-5A79-4193-88BE-7E3DAFEDAFB9}" name="Prioridad" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{E9DCA1B9-B020-4717-AA5B-BDA93C3F2010}" name="Descripción/motivo" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{53582361-1337-48A7-AF75-58F32149FBFF}" name="Página web" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{53582361-1337-48A7-AF75-58F32149FBFF}" name="Cotiazación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -805,444 +862,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03EC9DE-72BA-4C25-997E-57AF383FC0BE}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="5" width="34.88671875" customWidth="1"/>
-    <col min="6" max="6" width="56.88671875" customWidth="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1"/>
+    <col min="2" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="85" style="9" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="H3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="H22" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="D24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <v>20</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <v>50</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{6C66F1AB-99BC-4458-B5F3-25241C1EE2A6}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{B7DDEB3F-51B8-4289-8DC6-A85489FA5875}"/>
-    <hyperlink ref="F18" r:id="rId3" display="https://articulo.mercadolibre.com.co/MCO-631364527-adaptador-o-fuente-de-poder-12v-5-amperios-_JM?matt_tool=42035816&amp;matt_word=&amp;matt_source=google&amp;matt_campaign_id=14634237770&amp;matt_ad_group_id=145708770672&amp;matt_match_type=&amp;matt_network=g&amp;matt_device=c&amp;matt_creative=644763067417&amp;matt_keyword=&amp;matt_ad_position=&amp;matt_ad_type=pla&amp;matt_merchant_id=455120272&amp;matt_product_id=MCO631364527&amp;matt_product_partition_id=1939579762776&amp;matt_target_id=pla-1939579762776&amp;gclid=Cj0KCQiA6LyfBhC3ARIsAG4gkF_-mcyWgb7xOyktB2IVJ1UozOrWaPYJA7J1pRkB7zLVe6Jyx3lVeRYaAm9mEALw_wcB" xr:uid="{5E484386-50B5-4F80-A346-89129A38678E}"/>
+    <hyperlink ref="H23" r:id="rId1" xr:uid="{B7DDEB3F-51B8-4289-8DC6-A85489FA5875}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{2DA21F21-64D3-4664-9A22-65CA33D3A5CC}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{5892028F-9A74-4275-9E3A-CEAC8E20961B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>